--- a/data/trans_orig/P1418-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4696</v>
+        <v>4120</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001661841309577967</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009505694174258736</v>
+        <v>0.008338171416156472</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>2824</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8501</v>
+        <v>7647</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00604166697920154</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001923597112841675</v>
+        <v>0.001919654987452432</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01818420123563674</v>
+        <v>0.01635764047101403</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -786,19 +786,19 @@
         <v>3645</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>940</v>
+        <v>903</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9090</v>
+        <v>8292</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003791230757900614</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0009773007266347408</v>
+        <v>0.0009395007940189194</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009453234459680207</v>
+        <v>0.008623662716446785</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>493243</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>489368</v>
+        <v>489944</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>494064</v>
@@ -824,7 +824,7 @@
         <v>0.9983381586904221</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9904943058257412</v>
+        <v>0.9916618285838436</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,19 +836,19 @@
         <v>464665</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>458988</v>
+        <v>459842</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>466590</v>
+        <v>466592</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9939583330207985</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.981815798764363</v>
+        <v>0.9836423595289858</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9980764028871583</v>
+        <v>0.9980803450125476</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>984</v>
@@ -857,19 +857,19 @@
         <v>957908</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>952463</v>
+        <v>953261</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>960613</v>
+        <v>960650</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9962087692420993</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9905467655403198</v>
+        <v>0.9913763372835532</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9990226992733652</v>
+        <v>0.9990604992059811</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>6145</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2507</v>
+        <v>2560</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14070</v>
+        <v>14258</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008355301857396096</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003409186807696126</v>
+        <v>0.00348123251208814</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01913044967548885</v>
+        <v>0.01938593142673799</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -982,19 +982,19 @@
         <v>17005</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9935</v>
+        <v>10380</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27396</v>
+        <v>27129</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0271858616999174</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01588423021266904</v>
+        <v>0.01659430123214393</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04379955293070862</v>
+        <v>0.04337182158080009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -1003,19 +1003,19 @@
         <v>23150</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14369</v>
+        <v>14089</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34440</v>
+        <v>34938</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01700963753344325</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01055759936150166</v>
+        <v>0.01035201204772197</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02530548753744407</v>
+        <v>0.02567131933678081</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>729344</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>721419</v>
+        <v>721231</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>732982</v>
+        <v>732929</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9916446981426039</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9808695503245114</v>
+        <v>0.9806140685732621</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9965908131923038</v>
+        <v>0.9965187674879118</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>576</v>
@@ -1053,19 +1053,19 @@
         <v>608489</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>598098</v>
+        <v>598365</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>615559</v>
+        <v>615114</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9728141383000826</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9562004470692913</v>
+        <v>0.9566281784191999</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.984115769787331</v>
+        <v>0.9834056987678561</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1273</v>
@@ -1074,19 +1074,19 @@
         <v>1337832</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1326542</v>
+        <v>1326044</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1346613</v>
+        <v>1346893</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9829903624665568</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9746945124625552</v>
+        <v>0.9743286806632192</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9894424006384981</v>
+        <v>0.989647987952278</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>12282</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5910</v>
+        <v>6507</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21046</v>
+        <v>20719</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01923003127335844</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009253435277166194</v>
+        <v>0.01018825876952796</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03295357543208074</v>
+        <v>0.03244148823595006</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -1199,19 +1199,19 @@
         <v>37573</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27608</v>
+        <v>26513</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51012</v>
+        <v>51510</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05447427037172689</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04002609398745393</v>
+        <v>0.03843914783577718</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07395745355086777</v>
+        <v>0.0746800445925923</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -1220,19 +1220,19 @@
         <v>49855</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37034</v>
+        <v>37060</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65853</v>
+        <v>63598</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03752971118485282</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02787876515129104</v>
+        <v>0.02789804326241955</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04957244085334191</v>
+        <v>0.04787491697005848</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>626386</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>617622</v>
+        <v>617949</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>632758</v>
+        <v>632161</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9807699687266416</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9670464245679192</v>
+        <v>0.9675585117640495</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9907465647228337</v>
+        <v>0.989811741230472</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>622</v>
@@ -1270,19 +1270,19 @@
         <v>652171</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>638732</v>
+        <v>638234</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>662136</v>
+        <v>663231</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9455257296282731</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9260425464491322</v>
+        <v>0.9253199554074077</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9599739060125457</v>
+        <v>0.9615608521642227</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1223</v>
@@ -1291,19 +1291,19 @@
         <v>1278557</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1262559</v>
+        <v>1264814</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1291378</v>
+        <v>1291352</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9624702888151472</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9504275591466579</v>
+        <v>0.9521250830299414</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9721212348487087</v>
+        <v>0.9721019567375805</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>26337</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17184</v>
+        <v>16935</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38735</v>
+        <v>38428</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05073225186639054</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03309999200412463</v>
+        <v>0.03262015990052539</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07461271945972164</v>
+        <v>0.07402207117061524</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -1416,19 +1416,19 @@
         <v>50878</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37731</v>
+        <v>38346</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66688</v>
+        <v>66127</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09866967062457659</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07317208532135462</v>
+        <v>0.07436505290491588</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1293309421865</v>
+        <v>0.1282429772250992</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>73</v>
@@ -1437,19 +1437,19 @@
         <v>77216</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61737</v>
+        <v>61956</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95917</v>
+        <v>96452</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07461977407728827</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05966172291296683</v>
+        <v>0.05987355787640713</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09269205577863263</v>
+        <v>0.09320899445216889</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>492810</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>480412</v>
+        <v>480719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>501963</v>
+        <v>502212</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9492677481336095</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9253872805402787</v>
+        <v>0.9259779288293853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9669000079958754</v>
+        <v>0.9673798400994748</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>453</v>
@@ -1487,19 +1487,19 @@
         <v>464764</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>448954</v>
+        <v>449515</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>477911</v>
+        <v>477296</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9013303293754235</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8706690578135007</v>
+        <v>0.8717570227749009</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9268279146786454</v>
+        <v>0.9256349470950841</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>913</v>
@@ -1508,19 +1508,19 @@
         <v>957573</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>938872</v>
+        <v>938337</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>973052</v>
+        <v>972833</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9253802259227117</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9073079442213675</v>
+        <v>0.9067910055478311</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9403382770870333</v>
+        <v>0.940126442123593</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>45002</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33798</v>
+        <v>34178</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59113</v>
+        <v>58609</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1163709014289115</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08739909564599727</v>
+        <v>0.08838077653483924</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1528615492536596</v>
+        <v>0.1515570236640208</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -1633,19 +1633,19 @@
         <v>48072</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37275</v>
+        <v>36730</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63079</v>
+        <v>62219</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1189946503851452</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09226800041533888</v>
+        <v>0.0909178904741529</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1561407942024347</v>
+        <v>0.1540137853600155</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>94</v>
@@ -1654,19 +1654,19 @@
         <v>93074</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>75285</v>
+        <v>76145</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>111624</v>
+        <v>112067</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1177114390966179</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09521402483942594</v>
+        <v>0.0963012368912587</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1411718985061441</v>
+        <v>0.141732220301042</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>341708</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>327597</v>
+        <v>328101</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>352912</v>
+        <v>352532</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8836290985710885</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8471384507463403</v>
+        <v>0.8484429763359786</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9126009043540027</v>
+        <v>0.9116192234651604</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>348</v>
@@ -1704,19 +1704,19 @@
         <v>355914</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>340907</v>
+        <v>341767</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>366711</v>
+        <v>367256</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8810053496148548</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8438592057975656</v>
+        <v>0.8459862146399848</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9077319995846616</v>
+        <v>0.9090821095258471</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>694</v>
@@ -1725,19 +1725,19 @@
         <v>697622</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>679072</v>
+        <v>678629</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>715411</v>
+        <v>714551</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8822885609033821</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8588281014938559</v>
+        <v>0.8582677796989576</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9047859751605739</v>
+        <v>0.9036987631087412</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>43598</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32015</v>
+        <v>33042</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>57188</v>
+        <v>56208</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1490119816072264</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1094233763082865</v>
+        <v>0.1129316489428917</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1954573827125327</v>
+        <v>0.1921107509455991</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>87</v>
@@ -1850,19 +1850,19 @@
         <v>81558</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66445</v>
+        <v>66931</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>95333</v>
+        <v>96488</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.237823691721871</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1937547493680112</v>
+        <v>0.1951712899610779</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2779908391605595</v>
+        <v>0.2813616008375184</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>133</v>
@@ -1871,19 +1871,19 @@
         <v>125156</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>106069</v>
+        <v>104919</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>143518</v>
+        <v>143206</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1969360417751571</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1669014563017915</v>
+        <v>0.1650922954452649</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2258289625128563</v>
+        <v>0.2253384099354163</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>248985</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>235395</v>
+        <v>236375</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260568</v>
+        <v>259541</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8509880183927736</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8045426172874672</v>
+        <v>0.8078892490544006</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8905766236917132</v>
+        <v>0.8870683510571081</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>284</v>
@@ -1921,19 +1921,19 @@
         <v>261376</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>247601</v>
+        <v>246446</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>276489</v>
+        <v>276003</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.762176308278129</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7220091608394404</v>
+        <v>0.7186383991624816</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8062452506319887</v>
+        <v>0.8048287100389221</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>541</v>
@@ -1942,19 +1942,19 @@
         <v>510361</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>491999</v>
+        <v>492311</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>529448</v>
+        <v>530598</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8030639582248429</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7741710374871442</v>
+        <v>0.7746615900645839</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8330985436982087</v>
+        <v>0.8349077045547351</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>44897</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34260</v>
+        <v>35215</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56381</v>
+        <v>57967</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2139143664040642</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1632347338312254</v>
+        <v>0.167781585057693</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2686313894232417</v>
+        <v>0.2761895069574302</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>93</v>
@@ -2067,19 +2067,19 @@
         <v>105242</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>87661</v>
+        <v>86911</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>124452</v>
+        <v>122354</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3151813123620932</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2625298665776987</v>
+        <v>0.2602850797413788</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3727134129272195</v>
+        <v>0.3664315055021173</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>141</v>
@@ -2088,19 +2088,19 @@
         <v>150139</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>129205</v>
+        <v>130908</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>171882</v>
+        <v>172679</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2760960550835869</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2376003754603389</v>
+        <v>0.2407324184674177</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.316081085688675</v>
+        <v>0.3175472377098603</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>164986</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>153502</v>
+        <v>151916</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>175623</v>
+        <v>174668</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7860856335959358</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7313686105767583</v>
+        <v>0.7238104930425697</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8367652661687742</v>
+        <v>0.832218414942307</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>197</v>
@@ -2138,19 +2138,19 @@
         <v>228666</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>209456</v>
+        <v>211554</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>246247</v>
+        <v>246997</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6848186876379068</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6272865870727802</v>
+        <v>0.6335684944978827</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7374701334223012</v>
+        <v>0.7397149202586212</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>369</v>
@@ -2159,19 +2159,19 @@
         <v>393652</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>371909</v>
+        <v>371112</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>414586</v>
+        <v>412883</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7239039449164131</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6839189143113249</v>
+        <v>0.6824527622901397</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7623996245396613</v>
+        <v>0.7592675815325822</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>179083</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>153822</v>
+        <v>154262</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>206786</v>
+        <v>208403</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05465593801256361</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04694640332685313</v>
+        <v>0.04708071442919359</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06311103665684875</v>
+        <v>0.06360439387234765</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>331</v>
@@ -2284,19 +2284,19 @@
         <v>343152</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>307611</v>
+        <v>309388</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>379630</v>
+        <v>380640</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1015484120081016</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09103075032187732</v>
+        <v>0.09155668408846129</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1123433959369891</v>
+        <v>0.1126422731976497</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>514</v>
@@ -2305,19 +2305,19 @@
         <v>522235</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>475510</v>
+        <v>477050</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>564800</v>
+        <v>565543</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07846379512845618</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07144356442974042</v>
+        <v>0.07167498521495064</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08485909684550449</v>
+        <v>0.08497066717122505</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3097460</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3069757</v>
+        <v>3068140</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3122721</v>
+        <v>3122281</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9453440619874364</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9368889633431512</v>
+        <v>0.9363956061276524</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9530535966731468</v>
+        <v>0.9529192855708064</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2966</v>
@@ -2355,19 +2355,19 @@
         <v>3036045</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2999567</v>
+        <v>2998557</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3071586</v>
+        <v>3069809</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8984515879918984</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8876566040630108</v>
+        <v>0.8873577268023503</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9089692496781228</v>
+        <v>0.9084433159115384</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5997</v>
@@ -2376,19 +2376,19 @@
         <v>6133506</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6090941</v>
+        <v>6090198</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6180231</v>
+        <v>6178691</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9215362048715439</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9151409031544956</v>
+        <v>0.915029332828775</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9285564355702596</v>
+        <v>0.9283250147850494</v>
       </c>
     </row>
     <row r="27">
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5601</v>
+        <v>4939</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002272174997382935</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01301834649798581</v>
+        <v>0.01147886915870076</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5476</v>
+        <v>6633</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001105364067109335</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006191747390255456</v>
+        <v>0.007499794644544428</v>
       </c>
     </row>
     <row r="5">
@@ -2799,7 +2799,7 @@
         <v>429252</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>424629</v>
+        <v>425291</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>430230</v>
@@ -2808,7 +2808,7 @@
         <v>0.997727825002617</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9869816535020138</v>
+        <v>0.9885211308412992</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2820,7 +2820,7 @@
         <v>883398</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>878900</v>
+        <v>877743</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>884376</v>
@@ -2829,7 +2829,7 @@
         <v>0.9988946359328906</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9938082526097443</v>
+        <v>0.9925002053554549</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2924,19 +2924,19 @@
         <v>2805</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7787</v>
+        <v>7455</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004082919679574814</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001342198585003125</v>
+        <v>0.00132922896928106</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01133313460675442</v>
+        <v>0.0108498571015143</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -2945,19 +2945,19 @@
         <v>5879</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1999</v>
+        <v>2053</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11778</v>
+        <v>11884</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009633880088136834</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003276189814613145</v>
+        <v>0.003363357930484529</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01930009127785792</v>
+        <v>0.01947417181755237</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -2966,19 +2966,19 @@
         <v>8684</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3964</v>
+        <v>3849</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16280</v>
+        <v>16354</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006694029503844451</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003055612575509652</v>
+        <v>0.002967206746304851</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01254847264678815</v>
+        <v>0.01260614300311122</v>
       </c>
     </row>
     <row r="8">
@@ -2995,19 +2995,19 @@
         <v>684282</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>679300</v>
+        <v>679632</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>686165</v>
+        <v>686174</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9959170803204251</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9886668653932449</v>
+        <v>0.9891501428984856</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9986578014149968</v>
+        <v>0.998670771030719</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>565</v>
@@ -3016,19 +3016,19 @@
         <v>604376</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>598477</v>
+        <v>598371</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>608256</v>
+        <v>608202</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9903661199118632</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9806999087221421</v>
+        <v>0.9805258281824476</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9967238101853868</v>
+        <v>0.9966366420695155</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1229</v>
@@ -3037,19 +3037,19 @@
         <v>1288658</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1281062</v>
+        <v>1280988</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1293378</v>
+        <v>1293493</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9933059704961555</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9874515273532118</v>
+        <v>0.987393856996888</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9969443874244903</v>
+        <v>0.997032793253695</v>
       </c>
     </row>
     <row r="9">
@@ -3141,19 +3141,19 @@
         <v>3844</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>892</v>
+        <v>916</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11117</v>
+        <v>14643</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005638220323817595</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00130814822321408</v>
+        <v>0.001343133607430222</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01630330300743064</v>
+        <v>0.02147460961762229</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -3162,19 +3162,19 @@
         <v>28842</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18718</v>
+        <v>19362</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41113</v>
+        <v>41230</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04064754921460573</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02637902564136941</v>
+        <v>0.02728666186650531</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05794030849294613</v>
+        <v>0.05810485723522125</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -3183,19 +3183,19 @@
         <v>32687</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21282</v>
+        <v>22854</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46411</v>
+        <v>45868</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02349150439776924</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01529504999854685</v>
+        <v>0.0164250114400002</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03335465174381864</v>
+        <v>0.03296432058721888</v>
       </c>
     </row>
     <row r="11">
@@ -3212,19 +3212,19 @@
         <v>678019</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>670746</v>
+        <v>667220</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>680971</v>
+        <v>680947</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9943617796761824</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.983696696992569</v>
+        <v>0.9785253903823776</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9986918517767859</v>
+        <v>0.9986568663925698</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>640</v>
@@ -3233,19 +3233,19 @@
         <v>680732</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>668461</v>
+        <v>668344</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>690856</v>
+        <v>690212</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9593524507853942</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9420596915070538</v>
+        <v>0.9418951427647788</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9736209743586306</v>
+        <v>0.9727133381334947</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1288</v>
@@ -3254,19 +3254,19 @@
         <v>1358750</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1345026</v>
+        <v>1345569</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1370155</v>
+        <v>1368583</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9765084956022307</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9666453482561812</v>
+        <v>0.967035679412781</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9847049500014532</v>
+        <v>0.9835749885599997</v>
       </c>
     </row>
     <row r="12">
@@ -3358,19 +3358,19 @@
         <v>10647</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5283</v>
+        <v>5337</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20903</v>
+        <v>20436</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01732334789773991</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008596215333645964</v>
+        <v>0.008682983746587245</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03400953120371888</v>
+        <v>0.03324961887642659</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -3379,19 +3379,19 @@
         <v>38187</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27080</v>
+        <v>27079</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50491</v>
+        <v>52135</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0622736837182356</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04415976964495362</v>
+        <v>0.04415899908930512</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0823385801464375</v>
+        <v>0.08501961661550905</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -3400,19 +3400,19 @@
         <v>48835</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36516</v>
+        <v>35624</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65341</v>
+        <v>65464</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03977290159985104</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02974040497895437</v>
+        <v>0.02901389397367821</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05321657035180075</v>
+        <v>0.05331637004320687</v>
       </c>
     </row>
     <row r="14">
@@ -3429,19 +3429,19 @@
         <v>603970</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>593714</v>
+        <v>594181</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>609334</v>
+        <v>609280</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9826766521022601</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9659904687962807</v>
+        <v>0.9667503811235733</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9914037846663539</v>
+        <v>0.9913170162534127</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>502</v>
@@ -3450,19 +3450,19 @@
         <v>575030</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>562726</v>
+        <v>561082</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>586137</v>
+        <v>586138</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9377263162817644</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9176614198535623</v>
+        <v>0.9149803833844911</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9558402303550463</v>
+        <v>0.955841000910695</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1041</v>
@@ -3471,19 +3471,19 @@
         <v>1178999</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1162493</v>
+        <v>1162370</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1191318</v>
+        <v>1192210</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.960227098400149</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9467834296481993</v>
+        <v>0.946683629956793</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9702595950210456</v>
+        <v>0.9709861060263218</v>
       </c>
     </row>
     <row r="15">
@@ -3575,19 +3575,19 @@
         <v>14355</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7449</v>
+        <v>8389</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22482</v>
+        <v>22789</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03342878114418495</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01734580101643349</v>
+        <v>0.0195351097886095</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05235364864220545</v>
+        <v>0.05306725393132879</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -3596,19 +3596,19 @@
         <v>58737</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44560</v>
+        <v>44024</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>74135</v>
+        <v>73647</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1311673463394425</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09950863557783644</v>
+        <v>0.0983127937505188</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1655531782253503</v>
+        <v>0.1644637803646171</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -3617,19 +3617,19 @@
         <v>73092</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57776</v>
+        <v>58095</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>91235</v>
+        <v>89823</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08332147907597559</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06586186511080554</v>
+        <v>0.06622596091898376</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1040038949073555</v>
+        <v>0.1023936402154104</v>
       </c>
     </row>
     <row r="17">
@@ -3646,19 +3646,19 @@
         <v>415074</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>406947</v>
+        <v>406640</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>421980</v>
+        <v>421040</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9665712188558151</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9476463513577942</v>
+        <v>0.9469327460686713</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9826541989835664</v>
+        <v>0.9804648902113905</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>352</v>
@@ -3667,19 +3667,19 @@
         <v>389063</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>373665</v>
+        <v>374153</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>403240</v>
+        <v>403776</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8688326536605574</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8344468217746498</v>
+        <v>0.8355362196353829</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9004913644221636</v>
+        <v>0.9016872062494813</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>731</v>
@@ -3688,19 +3688,19 @@
         <v>804137</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>785994</v>
+        <v>787406</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>819453</v>
+        <v>819134</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9166785209240245</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8959961050926439</v>
+        <v>0.8976063597845896</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9341381348891943</v>
+        <v>0.9337740390810162</v>
       </c>
     </row>
     <row r="18">
@@ -3792,19 +3792,19 @@
         <v>31723</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22381</v>
+        <v>21877</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>44986</v>
+        <v>43894</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.102403274596939</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07224517676099962</v>
+        <v>0.07061977218307634</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1452149723072365</v>
+        <v>0.141692817916035</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>71</v>
@@ -3813,19 +3813,19 @@
         <v>73659</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>58403</v>
+        <v>59158</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>88787</v>
+        <v>88803</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2080781834799177</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1649809281011992</v>
+        <v>0.1671158148197244</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2508128698090533</v>
+        <v>0.2508597558248682</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>100</v>
@@ -3834,19 +3834,19 @@
         <v>105382</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>87786</v>
+        <v>87206</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>125657</v>
+        <v>125861</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1587598566840199</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1322505401177699</v>
+        <v>0.1313773795003678</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1893049952692259</v>
+        <v>0.1896126611086881</v>
       </c>
     </row>
     <row r="20">
@@ -3863,19 +3863,19 @@
         <v>278063</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>264800</v>
+        <v>265892</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>287405</v>
+        <v>287909</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.897596725403061</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8547850276927635</v>
+        <v>0.8583071820839649</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9277548232390004</v>
+        <v>0.9293802278169238</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>273</v>
@@ -3884,19 +3884,19 @@
         <v>280337</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>265209</v>
+        <v>265193</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>295593</v>
+        <v>294838</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7919218165200823</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7491871301909468</v>
+        <v>0.7491402441751317</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8350190718988009</v>
+        <v>0.8328841851802756</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>526</v>
@@ -3905,19 +3905,19 @@
         <v>558400</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>538125</v>
+        <v>537921</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>575996</v>
+        <v>576576</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8412401433159801</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.810695004730774</v>
+        <v>0.8103873388913119</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.86774945988223</v>
+        <v>0.8686226204996321</v>
       </c>
     </row>
     <row r="21">
@@ -4009,19 +4009,19 @@
         <v>43516</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31432</v>
+        <v>31909</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56991</v>
+        <v>58086</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1741677683843017</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1258048666507964</v>
+        <v>0.1277110091015692</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2280987171554663</v>
+        <v>0.2324817748891341</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>125</v>
@@ -4030,19 +4030,19 @@
         <v>139550</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>121231</v>
+        <v>121479</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>159722</v>
+        <v>158914</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.358760790971424</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3116650034696343</v>
+        <v>0.3123015196322581</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4106178230071505</v>
+        <v>0.4085418117216168</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>165</v>
@@ -4051,19 +4051,19 @@
         <v>183066</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>160433</v>
+        <v>159691</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>208298</v>
+        <v>204754</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2865651599202836</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2511360165735219</v>
+        <v>0.2499735429783105</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3260617010273716</v>
+        <v>0.3205136417972174</v>
       </c>
     </row>
     <row r="23">
@@ -4080,19 +4080,19 @@
         <v>206335</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>192860</v>
+        <v>191765</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>218419</v>
+        <v>217942</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8258322316156983</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7719012828445336</v>
+        <v>0.7675182251108659</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8741951333492036</v>
+        <v>0.8722889908984307</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>225</v>
@@ -4101,19 +4101,19 @@
         <v>249429</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>229257</v>
+        <v>230065</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>267748</v>
+        <v>267500</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.641239209028576</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5893821769928493</v>
+        <v>0.5914581882783837</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6883349965303655</v>
+        <v>0.6876984803677422</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>407</v>
@@ -4122,19 +4122,19 @@
         <v>455764</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>430532</v>
+        <v>434076</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>478397</v>
+        <v>479139</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7134348400797164</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6739382989726287</v>
+        <v>0.6794863582027827</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7488639834264789</v>
+        <v>0.7500264570216897</v>
       </c>
     </row>
     <row r="24">
@@ -4226,19 +4226,19 @@
         <v>106891</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87185</v>
+        <v>88418</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>130182</v>
+        <v>129536</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0311929701840058</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02544235998302219</v>
+        <v>0.02580217207848792</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03798949828198563</v>
+        <v>0.03780106521180109</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>318</v>
@@ -4247,19 +4247,19 @@
         <v>345832</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>309705</v>
+        <v>309299</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>383177</v>
+        <v>380275</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0973065232796954</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08714138554950125</v>
+        <v>0.08702727734588986</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1078140056600563</v>
+        <v>0.1069975834415899</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>416</v>
@@ -4268,19 +4268,19 @@
         <v>452724</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>414794</v>
+        <v>410474</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>503035</v>
+        <v>497764</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06485243115705056</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05941895951808796</v>
+        <v>0.05880016043080721</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07205945094544505</v>
+        <v>0.0713043782502495</v>
       </c>
     </row>
     <row r="26">
@@ -4297,19 +4297,19 @@
         <v>3319888</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3296597</v>
+        <v>3297243</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3339594</v>
+        <v>3338361</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9688070298159942</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9620105017180144</v>
+        <v>0.9621989347881988</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9745576400169778</v>
+        <v>0.9741978279215121</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2977</v>
@@ -4318,19 +4318,19 @@
         <v>3208220</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3170875</v>
+        <v>3173777</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3244347</v>
+        <v>3244753</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9026934767203046</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8921859943399437</v>
+        <v>0.89300241655841</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.912858614450499</v>
+        <v>0.9129727226541098</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6088</v>
@@ -4339,19 +4339,19 @@
         <v>6528107</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6477796</v>
+        <v>6483067</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6566037</v>
+        <v>6570357</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9351475688429495</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9279405490545553</v>
+        <v>0.9286956217497506</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9405810404819122</v>
+        <v>0.9411998395691928</v>
       </c>
     </row>
     <row r="27">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7800</v>
+        <v>5617</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002650622979153322</v>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01859503844832247</v>
+        <v>0.01339046395386021</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6059</v>
+        <v>6133</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001363853914840399</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007432866837145136</v>
+        <v>0.007523620334889408</v>
       </c>
     </row>
     <row r="5">
@@ -4749,7 +4749,7 @@
         <v>418351</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>411663</v>
+        <v>413846</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4758,7 +4758,7 @@
         <v>0.9973493770208467</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9814049615516774</v>
+        <v>0.9866095360461398</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4783,7 +4783,7 @@
         <v>814106</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>809159</v>
+        <v>809085</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -4792,7 +4792,7 @@
         <v>0.9986361460851596</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9925671331628538</v>
+        <v>0.9924763796651078</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4788</v>
+        <v>5333</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001611200780197651</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0081087746102898</v>
+        <v>0.009031849393177938</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4908,19 +4908,19 @@
         <v>7152</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3216</v>
+        <v>2931</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14312</v>
+        <v>13903</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01269167373734569</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005707480449928641</v>
+        <v>0.005200308336375315</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02539618110935528</v>
+        <v>0.02467114531521332</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -4929,19 +4929,19 @@
         <v>8104</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3846</v>
+        <v>3681</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16029</v>
+        <v>15783</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00702204515401154</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003332604183940913</v>
+        <v>0.003189324855513642</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01388960523371718</v>
+        <v>0.01367628418031343</v>
       </c>
     </row>
     <row r="8">
@@ -4958,7 +4958,7 @@
         <v>589545</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>585708</v>
+        <v>585163</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -4967,7 +4967,7 @@
         <v>0.9983887992198024</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9918912253897102</v>
+        <v>0.9909681506068241</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4979,19 +4979,19 @@
         <v>556392</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>549232</v>
+        <v>549641</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>560328</v>
+        <v>560613</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9873083262626543</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9746038188906447</v>
+        <v>0.9753288546847867</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9942925195500714</v>
+        <v>0.9947996916636247</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1138</v>
@@ -5000,19 +5000,19 @@
         <v>1145936</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1138011</v>
+        <v>1138257</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1150194</v>
+        <v>1150359</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9929779548459885</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9861103947662835</v>
+        <v>0.9863237158196869</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9966673958160592</v>
+        <v>0.9968106751444865</v>
       </c>
     </row>
     <row r="9">
@@ -5117,19 +5117,19 @@
         <v>17328</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9987</v>
+        <v>10651</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26862</v>
+        <v>27604</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02619938720619219</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01509940937378525</v>
+        <v>0.01610421879409779</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04061504438924782</v>
+        <v>0.04173620952241858</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -5138,19 +5138,19 @@
         <v>17328</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10894</v>
+        <v>10790</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27231</v>
+        <v>27341</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01302377829658809</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008188101202078898</v>
+        <v>0.008110040483333037</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02046675750790416</v>
+        <v>0.02054938383893498</v>
       </c>
     </row>
     <row r="11">
@@ -5180,19 +5180,19 @@
         <v>644058</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>634524</v>
+        <v>633782</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>651399</v>
+        <v>650735</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9738006127938078</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9593849556107522</v>
+        <v>0.9582637904775815</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9849005906262153</v>
+        <v>0.9838957812059025</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1285</v>
@@ -5201,19 +5201,19 @@
         <v>1313155</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1303252</v>
+        <v>1303142</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1319589</v>
+        <v>1319693</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9869762217034119</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9795332424920957</v>
+        <v>0.9794506161610648</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.991811898797921</v>
+        <v>0.9918899595166668</v>
       </c>
     </row>
     <row r="12">
@@ -5305,19 +5305,19 @@
         <v>11297</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5158</v>
+        <v>5686</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20409</v>
+        <v>20481</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01748561447385068</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007984656105658678</v>
+        <v>0.008801644695263251</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03159006280477075</v>
+        <v>0.03170248481213109</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -5326,19 +5326,19 @@
         <v>25052</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15809</v>
+        <v>16944</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36103</v>
+        <v>36650</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03859561032105423</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02435558886190153</v>
+        <v>0.02610411399263965</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05562216100652271</v>
+        <v>0.05646477484009157</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -5347,19 +5347,19 @@
         <v>36348</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25746</v>
+        <v>26227</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51960</v>
+        <v>50007</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02806529518245236</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01987915199526151</v>
+        <v>0.02025055766275366</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04011991049758435</v>
+        <v>0.03861179438122206</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>634751</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>625639</v>
+        <v>625567</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>640890</v>
+        <v>640362</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9825143855261493</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9684099371952296</v>
+        <v>0.9682975151878683</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9920153438943414</v>
+        <v>0.9911983553047367</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>579</v>
@@ -5397,19 +5397,19 @@
         <v>624025</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>612974</v>
+        <v>612427</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>633268</v>
+        <v>632133</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9614043896789458</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9443778389934774</v>
+        <v>0.9435352251599085</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9756444111380985</v>
+        <v>0.9738958860073604</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1151</v>
@@ -5418,19 +5418,19 @@
         <v>1258777</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1243165</v>
+        <v>1245118</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1269379</v>
+        <v>1268898</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9719347048175476</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9598800895024159</v>
+        <v>0.9613882056187781</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9801208480047392</v>
+        <v>0.9797494423372464</v>
       </c>
     </row>
     <row r="15">
@@ -5522,19 +5522,19 @@
         <v>13978</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7437</v>
+        <v>7373</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24283</v>
+        <v>22551</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02924756067539363</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01556074543690053</v>
+        <v>0.01542811093641052</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05080951543150881</v>
+        <v>0.04718589326602561</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -5543,19 +5543,19 @@
         <v>48484</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36413</v>
+        <v>36225</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>64183</v>
+        <v>63804</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09758218376806788</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07328748661263099</v>
+        <v>0.0729099692852738</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1291806761963944</v>
+        <v>0.1284176532501464</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -5564,19 +5564,19 @@
         <v>62462</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>47801</v>
+        <v>47947</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>79794</v>
+        <v>79312</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06407843743739587</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04903871645254674</v>
+        <v>0.04918789646207155</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08185911548826423</v>
+        <v>0.08136457672536825</v>
       </c>
     </row>
     <row r="17">
@@ -5593,19 +5593,19 @@
         <v>463940</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>453635</v>
+        <v>455367</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>470481</v>
+        <v>470545</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9707524393246064</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9491904845684912</v>
+        <v>0.9528141067339745</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9844392545630994</v>
+        <v>0.9845718890635895</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>390</v>
@@ -5614,19 +5614,19 @@
         <v>448365</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>432666</v>
+        <v>433045</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>460436</v>
+        <v>460624</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9024178162319322</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8708193238036055</v>
+        <v>0.8715823467498536</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.926712513387369</v>
+        <v>0.9270900307147262</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>802</v>
@@ -5635,19 +5635,19 @@
         <v>912305</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>894973</v>
+        <v>895455</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>926966</v>
+        <v>926820</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9359215625626042</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9181408845117356</v>
+        <v>0.9186354232746312</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9509612835474529</v>
+        <v>0.9508121035379283</v>
       </c>
     </row>
     <row r="18">
@@ -5739,19 +5739,19 @@
         <v>20740</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13271</v>
+        <v>12908</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31982</v>
+        <v>30969</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06203373810871243</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03969439009161373</v>
+        <v>0.03860708758031392</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09566058802591608</v>
+        <v>0.09262899914974319</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -5760,19 +5760,19 @@
         <v>60635</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47558</v>
+        <v>46639</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>76708</v>
+        <v>76173</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1605119341632332</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1258943223098649</v>
+        <v>0.1234605239615741</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2030600511036513</v>
+        <v>0.2016418549513291</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -5781,19 +5781,19 @@
         <v>81375</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65732</v>
+        <v>64543</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>101205</v>
+        <v>99966</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1142760333010651</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09230836440107189</v>
+        <v>0.09063843010757401</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1421236257807897</v>
+        <v>0.1403837480817735</v>
       </c>
     </row>
     <row r="20">
@@ -5810,19 +5810,19 @@
         <v>313590</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>302348</v>
+        <v>303361</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>321059</v>
+        <v>321422</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9379662618912876</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9043394119740843</v>
+        <v>0.9073710008502569</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9603056099083863</v>
+        <v>0.9613929124196864</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>297</v>
@@ -5831,19 +5831,19 @@
         <v>317127</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>301054</v>
+        <v>301589</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>330204</v>
+        <v>331123</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8394880658367668</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7969399488963487</v>
+        <v>0.7983581450486708</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8741056776901349</v>
+        <v>0.8765394760384257</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>602</v>
@@ -5852,19 +5852,19 @@
         <v>630717</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>610887</v>
+        <v>612126</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>646360</v>
+        <v>647549</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8857239666989349</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8578763742192106</v>
+        <v>0.8596162519182265</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9076916355989286</v>
+        <v>0.909361569892426</v>
       </c>
     </row>
     <row r="21">
@@ -5956,19 +5956,19 @@
         <v>33634</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23762</v>
+        <v>23873</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44090</v>
+        <v>44345</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1308743929522929</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09245990534280839</v>
+        <v>0.09289014235037081</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1715576927115314</v>
+        <v>0.172551732122657</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>73</v>
@@ -5977,19 +5977,19 @@
         <v>94472</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>76632</v>
+        <v>77998</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>113408</v>
+        <v>114419</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2360805025316487</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1915000921246653</v>
+        <v>0.1949127273247975</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2834007677383512</v>
+        <v>0.2859269430481544</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>111</v>
@@ -5998,19 +5998,19 @@
         <v>128107</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>109929</v>
+        <v>106805</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>151310</v>
+        <v>149920</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1949375969363767</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1672778122127501</v>
+        <v>0.1625231550203271</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2302459881324228</v>
+        <v>0.2281304513538722</v>
       </c>
     </row>
     <row r="23">
@@ -6027,19 +6027,19 @@
         <v>223364</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>212908</v>
+        <v>212653</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>233236</v>
+        <v>233125</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.869125607047707</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8284423072884686</v>
+        <v>0.827448267877343</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9075400946571917</v>
+        <v>0.9071098576496291</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>228</v>
@@ -6048,19 +6048,19 @@
         <v>305697</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>286761</v>
+        <v>285750</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>323537</v>
+        <v>322171</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7639194974683513</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7165992322616489</v>
+        <v>0.7140730569518459</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8084999078753347</v>
+        <v>0.8050872726752024</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>492</v>
@@ -6069,19 +6069,19 @@
         <v>529060</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>505857</v>
+        <v>507247</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>547238</v>
+        <v>550362</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8050624030636232</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7697540118675773</v>
+        <v>0.7718695486461278</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8327221877872499</v>
+        <v>0.837476844979673</v>
       </c>
     </row>
     <row r="24">
@@ -6173,19 +6173,19 @@
         <v>81712</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>65363</v>
+        <v>63606</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>103098</v>
+        <v>100061</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02407292215603704</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01925639087437507</v>
+        <v>0.01873875751170737</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03037327066976976</v>
+        <v>0.02947860663555106</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>221</v>
@@ -6194,19 +6194,19 @@
         <v>253123</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>216945</v>
+        <v>220594</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>282466</v>
+        <v>286948</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07141198167493285</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06120543468530249</v>
+        <v>0.06223484068968935</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07969049438685875</v>
+        <v>0.08095498076283243</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>303</v>
@@ -6215,19 +6215,19 @@
         <v>334835</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>299162</v>
+        <v>302318</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>373557</v>
+        <v>373398</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04825477660544995</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04311381340881379</v>
+        <v>0.04356867484366349</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05383527573786068</v>
+        <v>0.05381226858868261</v>
       </c>
     </row>
     <row r="26">
@@ -6244,19 +6244,19 @@
         <v>3312638</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3291252</v>
+        <v>3294289</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3328987</v>
+        <v>3330744</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9759270778439629</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9696267293302313</v>
+        <v>0.9705213933644494</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9807436091256252</v>
+        <v>0.9812612424882931</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3117</v>
@@ -6265,19 +6265,19 @@
         <v>3291419</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3262076</v>
+        <v>3257594</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3327597</v>
+        <v>3323948</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9285880183250672</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.920309505613141</v>
+        <v>0.9190450192371673</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9387945653146975</v>
+        <v>0.9377651593103103</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6266</v>
@@ -6286,19 +6286,19 @@
         <v>6604057</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6565335</v>
+        <v>6565494</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6639730</v>
+        <v>6636574</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.95174522339455</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9461647242621393</v>
+        <v>0.9461877314113173</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9568861865911862</v>
+        <v>0.9564313251563364</v>
       </c>
     </row>
     <row r="27">
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17541</v>
+        <v>14201</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008314011821477367</v>
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04301334429562359</v>
+        <v>0.03482494145381761</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15627</v>
+        <v>15766</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0121476088667799</v>
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04310751420357396</v>
+        <v>0.04349150625315844</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -6675,19 +6675,19 @@
         <v>7794</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2032</v>
+        <v>2059</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23486</v>
+        <v>21112</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.01011813456277825</v>
+        <v>0.01011813456277824</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002637673801605114</v>
+        <v>0.002672605319591396</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03048920393701916</v>
+        <v>0.02740720534905809</v>
       </c>
     </row>
     <row r="5">
@@ -6704,7 +6704,7 @@
         <v>404403</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>390252</v>
+        <v>393592</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -6713,7 +6713,7 @@
         <v>0.9916859881785227</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9569866557043777</v>
+        <v>0.9651750585461825</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6725,7 +6725,7 @@
         <v>358108</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>346885</v>
+        <v>346746</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
@@ -6734,7 +6734,7 @@
         <v>0.98785239113322</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9568924857964263</v>
+        <v>0.9565084937468417</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6746,19 +6746,19 @@
         <v>762511</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>746819</v>
+        <v>749193</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>768273</v>
+        <v>768246</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9898818654372218</v>
+        <v>0.9898818654372217</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9695107960629809</v>
+        <v>0.9725927946509424</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9973623261983948</v>
+        <v>0.9973273946804087</v>
       </c>
     </row>
     <row r="6">
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7092</v>
+        <v>6129</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002520051048353691</v>
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01487154997436128</v>
+        <v>0.01285192502745031</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -6871,19 +6871,19 @@
         <v>5063</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1932</v>
+        <v>1838</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10491</v>
+        <v>10771</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01012287745664642</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003861873099689263</v>
+        <v>0.003675394448504826</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02097508027711638</v>
+        <v>0.02153418931097968</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -6892,19 +6892,19 @@
         <v>6265</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2228</v>
+        <v>2408</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13443</v>
+        <v>13042</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006412024061017775</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002280509267818916</v>
+        <v>0.002464788334140811</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01375863133993038</v>
+        <v>0.01334837825329969</v>
       </c>
     </row>
     <row r="8">
@@ -6921,7 +6921,7 @@
         <v>475688</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>469798</v>
+        <v>470761</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>476890</v>
@@ -6930,7 +6930,7 @@
         <v>0.9974799489516463</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9851284500256388</v>
+        <v>0.9871480749725496</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -6942,19 +6942,19 @@
         <v>495103</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>489675</v>
+        <v>489395</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498234</v>
+        <v>498328</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9898771225433536</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9790249197228836</v>
+        <v>0.9784658106890199</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9961381269003107</v>
+        <v>0.9963246055514949</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>755</v>
@@ -6963,19 +6963,19 @@
         <v>970791</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>963613</v>
+        <v>964014</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>974828</v>
+        <v>974648</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9935879759389822</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9862413686600697</v>
+        <v>0.9866516217467004</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9977194907321811</v>
+        <v>0.9975352116658592</v>
       </c>
     </row>
     <row r="9">
@@ -7067,19 +7067,19 @@
         <v>5931</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2255</v>
+        <v>2249</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13350</v>
+        <v>12890</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00959172963624281</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003647526376113471</v>
+        <v>0.00363705536545429</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02159136448258713</v>
+        <v>0.02084734089118186</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -7088,19 +7088,19 @@
         <v>21760</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14600</v>
+        <v>14876</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30521</v>
+        <v>31370</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03504461727592543</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02351363832842844</v>
+        <v>0.02395729742020608</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04915393765813209</v>
+        <v>0.05052129940899654</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -7109,19 +7109,19 @@
         <v>27691</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19569</v>
+        <v>18383</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39763</v>
+        <v>37124</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02234516793812932</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0157915082282749</v>
+        <v>0.01483379762765009</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03208686625337232</v>
+        <v>0.0299567964013683</v>
       </c>
     </row>
     <row r="11">
@@ -7138,19 +7138,19 @@
         <v>612374</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>604955</v>
+        <v>605415</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>616050</v>
+        <v>616056</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9904082703637571</v>
+        <v>0.9904082703637573</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9784086355174129</v>
+        <v>0.9791526591088178</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9963524736238866</v>
+        <v>0.9963629446345457</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>815</v>
@@ -7159,19 +7159,19 @@
         <v>599174</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>590413</v>
+        <v>589564</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>606334</v>
+        <v>606058</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9649553827240747</v>
+        <v>0.9649553827240749</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.950846062341868</v>
+        <v>0.9494787005910028</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9764863616715715</v>
+        <v>0.9760427025797936</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1354</v>
@@ -7180,19 +7180,19 @@
         <v>1211548</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1199476</v>
+        <v>1202115</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1219670</v>
+        <v>1220856</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9776548320618706</v>
+        <v>0.977654832061871</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9679131337466276</v>
+        <v>0.9700432035986316</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9842084917717249</v>
+        <v>0.98516620237235</v>
       </c>
     </row>
     <row r="12">
@@ -7284,19 +7284,19 @@
         <v>28632</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19336</v>
+        <v>18505</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41936</v>
+        <v>41116</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0409312966367114</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02764235728314468</v>
+        <v>0.02645441262339064</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05994945004091004</v>
+        <v>0.05877680921117839</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -7305,19 +7305,19 @@
         <v>57123</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46202</v>
+        <v>46651</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69989</v>
+        <v>70113</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07786437504453127</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0629775110814059</v>
+        <v>0.06359004260207966</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09540239693887716</v>
+        <v>0.09557080549356399</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>115</v>
@@ -7326,19 +7326,19 @@
         <v>85756</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>69930</v>
+        <v>70336</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>102470</v>
+        <v>102446</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05983725753605981</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04879442644637107</v>
+        <v>0.04907830224189777</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07150010009164351</v>
+        <v>0.07148360589439759</v>
       </c>
     </row>
     <row r="14">
@@ -7355,19 +7355,19 @@
         <v>670890</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>657586</v>
+        <v>658406</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>680186</v>
+        <v>681017</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9590687033632886</v>
+        <v>0.9590687033632884</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9400505499590909</v>
+        <v>0.9412231907888214</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9723576427168554</v>
+        <v>0.9735455873766095</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1047</v>
@@ -7376,19 +7376,19 @@
         <v>676501</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>663635</v>
+        <v>663511</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>687422</v>
+        <v>686973</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9221356249554687</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.904597603061123</v>
+        <v>0.9044291945064359</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9370224889185943</v>
+        <v>0.9364099573979203</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1685</v>
@@ -7397,19 +7397,19 @@
         <v>1347390</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1330676</v>
+        <v>1330700</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1363216</v>
+        <v>1362810</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.94016274246394</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9284998999083566</v>
+        <v>0.9285163941056024</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9512055735536289</v>
+        <v>0.9509216977581022</v>
       </c>
     </row>
     <row r="15">
@@ -7501,19 +7501,19 @@
         <v>29881</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20942</v>
+        <v>21363</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41529</v>
+        <v>41949</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04911719499167461</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03442350260961252</v>
+        <v>0.03511600076170637</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0682636433759951</v>
+        <v>0.06895488710086348</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -7522,19 +7522,19 @@
         <v>60897</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49075</v>
+        <v>49686</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>73928</v>
+        <v>74096</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1004806063733661</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08097374598437676</v>
+        <v>0.08198222713789137</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.121981336219724</v>
+        <v>0.1222586441565332</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>129</v>
@@ -7543,19 +7543,19 @@
         <v>90778</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>77635</v>
+        <v>75480</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>109079</v>
+        <v>106732</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07475023604139658</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06392741249977771</v>
+        <v>0.06215315969292748</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08981964581573981</v>
+        <v>0.08788780661441374</v>
       </c>
     </row>
     <row r="17">
@@ -7572,19 +7572,19 @@
         <v>578478</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>566830</v>
+        <v>566410</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>587417</v>
+        <v>586996</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9508828050083258</v>
+        <v>0.9508828050083256</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9317363566240049</v>
+        <v>0.9310451128991367</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9655764973903876</v>
+        <v>0.9648839992382936</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>902</v>
@@ -7593,19 +7593,19 @@
         <v>545161</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>532130</v>
+        <v>531962</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>556983</v>
+        <v>556372</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8995193936266338</v>
+        <v>0.8995193936266339</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.878018663780276</v>
+        <v>0.8777413558434666</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9190262540156232</v>
+        <v>0.9180177728621085</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1531</v>
@@ -7614,19 +7614,19 @@
         <v>1123639</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1105338</v>
+        <v>1107685</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1136782</v>
+        <v>1138937</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9252497639586035</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9101803541842605</v>
+        <v>0.9121121933855858</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9360725875002223</v>
+        <v>0.9378468403070722</v>
       </c>
     </row>
     <row r="18">
@@ -7718,19 +7718,19 @@
         <v>32221</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24149</v>
+        <v>24520</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41220</v>
+        <v>41519</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.07932084736260495</v>
+        <v>0.07932084736260493</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05944823101818611</v>
+        <v>0.06036166768647241</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1014754882618344</v>
+        <v>0.1022112337060176</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>104</v>
@@ -7739,19 +7739,19 @@
         <v>57198</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47351</v>
+        <v>48188</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>68090</v>
+        <v>68733</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1305315413435984</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1080589077772499</v>
+        <v>0.1099696433024648</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1553871152718019</v>
+        <v>0.1568554077929458</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>154</v>
@@ -7760,19 +7760,19 @@
         <v>89419</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>75588</v>
+        <v>77044</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>103354</v>
+        <v>105100</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1058959907230341</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08951625078841662</v>
+        <v>0.09124062504781463</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1223989250243555</v>
+        <v>0.1244664280323601</v>
       </c>
     </row>
     <row r="20">
@@ -7789,19 +7789,19 @@
         <v>373990</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>364991</v>
+        <v>364692</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>382062</v>
+        <v>381691</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9206791526373951</v>
+        <v>0.920679152637395</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8985245117381655</v>
+        <v>0.897788766293982</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.940551768981814</v>
+        <v>0.9396383323135276</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>721</v>
@@ -7810,19 +7810,19 @@
         <v>380995</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>370103</v>
+        <v>369460</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>390842</v>
+        <v>390005</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8694684586564017</v>
+        <v>0.8694684586564015</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8446128847281981</v>
+        <v>0.8431445922070544</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8919410922227501</v>
+        <v>0.8900303566975352</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1240</v>
@@ -7831,19 +7831,19 @@
         <v>754985</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>741050</v>
+        <v>739304</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>768816</v>
+        <v>767360</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8941040092769658</v>
+        <v>0.894104009276966</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8776010749756447</v>
+        <v>0.87553357196764</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9104837492115836</v>
+        <v>0.9087593749521854</v>
       </c>
     </row>
     <row r="21">
@@ -7935,19 +7935,19 @@
         <v>48308</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37955</v>
+        <v>38577</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59838</v>
+        <v>59312</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1557316288013019</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1223562061750404</v>
+        <v>0.1243640497496408</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.192902656601311</v>
+        <v>0.1912070254418482</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>234</v>
@@ -7956,19 +7956,19 @@
         <v>122479</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>108374</v>
+        <v>109576</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>136603</v>
+        <v>137575</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2639884877875719</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2335883324962034</v>
+        <v>0.2361786376871152</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2944318759891761</v>
+        <v>0.296527204747124</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>310</v>
@@ -7977,19 +7977,19 @@
         <v>170786</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>153635</v>
+        <v>154525</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>188771</v>
+        <v>189896</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.220610613302574</v>
+        <v>0.2206106133025741</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1984561567403721</v>
+        <v>0.1996054290038864</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2438416892227657</v>
+        <v>0.245295342227243</v>
       </c>
     </row>
     <row r="23">
@@ -8006,19 +8006,19 @@
         <v>261890</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>250360</v>
+        <v>250886</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>272243</v>
+        <v>271621</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.844268371198698</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8070973433986889</v>
+        <v>0.8087929745581519</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8776437938249595</v>
+        <v>0.875635950250359</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>646</v>
@@ -8027,19 +8027,19 @@
         <v>341475</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>327351</v>
+        <v>326379</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>355580</v>
+        <v>354378</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7360115122124282</v>
+        <v>0.7360115122124281</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7055681240108239</v>
+        <v>0.7034727952528758</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7664116675037966</v>
+        <v>0.7638213623128846</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1028</v>
@@ -8048,19 +8048,19 @@
         <v>603367</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>585382</v>
+        <v>584257</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>620518</v>
+        <v>619628</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.779389386697426</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7561583107772343</v>
+        <v>0.754704657772757</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8015438432596277</v>
+        <v>0.8003945709961134</v>
       </c>
     </row>
     <row r="24">
@@ -8152,19 +8152,19 @@
         <v>149565</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>125654</v>
+        <v>127424</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>172278</v>
+        <v>174224</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04240229853486309</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03562357527453462</v>
+        <v>0.03612528513353642</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04884153538639274</v>
+        <v>0.04939330593172553</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>559</v>
@@ -8173,19 +8173,19 @@
         <v>328924</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>302336</v>
+        <v>302376</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>356213</v>
+        <v>359236</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08829128381034021</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0811544810072912</v>
+        <v>0.08116516470477296</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09561634275867957</v>
+        <v>0.09642768722399776</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>751</v>
@@ -8194,19 +8194,19 @@
         <v>478489</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>443025</v>
+        <v>446890</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>515581</v>
+        <v>518788</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06597369215231894</v>
+        <v>0.06597369215231895</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06108403310621778</v>
+        <v>0.06161691223665149</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07108793492571847</v>
+        <v>0.07153012424160966</v>
       </c>
     </row>
     <row r="26">
@@ -8223,19 +8223,19 @@
         <v>3377714</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3355001</v>
+        <v>3353055</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3401625</v>
+        <v>3399855</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.957597701465137</v>
+        <v>0.9575977014651369</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9511584646136071</v>
+        <v>0.9506066940682744</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9643764247254654</v>
+        <v>0.9638747148664635</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4790</v>
@@ -8244,19 +8244,19 @@
         <v>3396518</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3369229</v>
+        <v>3366206</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3423106</v>
+        <v>3423066</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9117087161896598</v>
+        <v>0.9117087161896599</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9043836572413205</v>
+        <v>0.9035723127760023</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9188455189927088</v>
+        <v>0.918834835295227</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7969</v>
@@ -8265,19 +8265,19 @@
         <v>6774232</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6737140</v>
+        <v>6733933</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6809696</v>
+        <v>6805831</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9340263078476813</v>
+        <v>0.934026307847681</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9289120650742816</v>
+        <v>0.9284698757583904</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9389159668937821</v>
+        <v>0.9383830877633481</v>
       </c>
     </row>
     <row r="27">
